--- a/システムテスト仕様書 .xlsx
+++ b/システムテスト仕様書 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\研修課題\2020-06\Lv50\Level50\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA619929-EE87-4D75-8013-FE7D38737D87}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE265DD-86CA-47AB-8C08-E51E20A00EC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -134,26 +132,66 @@
 3.先攻が座標(1,1)を入力する
 4.後攻が座標(3,1)を入力する
 5.先攻が座標(3,3)を入力する</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>先攻が勝者であることとターン履歴を表示する</t>
+    <t>勝者：先攻
+マスの状況、
+ターン履歴
+先攻(2,2)〇
+後攻(2,1)×
+先攻(1,1)〇
+後攻(3,1)×
+先攻(3,3)〇</t>
+    <rPh sb="0" eb="2">
+      <t>ショウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>プレイヤーのの二人が実際にゲームを行う
 座標をお互いに指定し引き分けるように進める
-1.先攻が座標(2,2)を入力する_x000D_
-2.後攻が座標(1,1)を入力する_x000D_
-3.先攻が座標(1,3)を入力する_x000D_
-4.後攻が座標(3,1)を入力する_x000D_
+1.先攻が座標(2,2)を入力する
+2.後攻が座標(1,1)を入力する
+3.先攻が座標(1,3)を入力する
+4.後攻が座標(3,1)を入力する
 5.先攻が座標(2,1)を入力する
-6.後攻が座標(2,3)を入力する_x000D_
+6.後攻が座標(2,3)を入力する
 7.先攻が座標(1,2)を入力する
-8.後攻が座標(3,2)を入力する_x000D_
+8.後攻が座標(3,2)を入力する
 9.先攻が座標(3,3)を入力する</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>引き分けとターン履歴
-を表示する</t>
+    <t xml:space="preserve">引き分け
+マスの状況
+ターン履歴
+座標(2,2)〇
+後攻(1,1)×
+先攻(1,3)〇
+後攻(3,1)×
+先攻(2,1)〇
+後攻(2,3)×
+先攻(1,2)〇
+後攻(3,2)×
+先攻(3,3)〇
+</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -849,8 +887,8 @@
   </sheetPr>
   <dimension ref="B1:AS17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8:X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1742,12 +1780,18 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="44" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1756,7 +1800,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -1940,13 +1984,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1954,7 +2001,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B55F2A26-0D08-4535-A60D-9F41C9906BF6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1970,13 +2017,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>